--- a/HW3_Excel1/HW3_114306082.xlsx
+++ b/HW3_Excel1/HW3_114306082.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\計概TA\1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC881CA7-3216-43A7-BEFE-B79370226002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5F6409-AADA-46F8-9C89-AD1117284F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -1219,6 +1219,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1234,6 +1239,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1249,6 +1259,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1264,6 +1279,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1279,6 +1299,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1294,6 +1319,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1309,6 +1339,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1324,6 +1359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1339,6 +1379,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1354,6 +1399,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1369,6 +1419,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1384,6 +1439,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1399,6 +1459,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1414,6 +1479,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-700D-4A77-AC32-ED6BF2101BE5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -1611,32 +1681,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="2AA0A4"/>
-  <a:srgbClr val="9373C0"/>
-  <a:srgbClr val="13A10E"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="CA5010"/>
-  <a:srgbClr val="57811B"/>
-  <a:srgbClr val="B146C2"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="EE5FB7"/>
-  <a:srgbClr val="008B94"/>
-  <a:srgbClr val="D77440"/>
-  <a:srgbClr val="BA58C9"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="C36BD1"/>
-  <a:srgbClr val="D06228"/>
-  <a:srgbClr val="57811B"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
   <a:srgbClr val="637CEF"/>
   <a:srgbClr val="E3008C"/>
@@ -2165,525 +2209,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3080,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>

--- a/HW3_Excel1/HW3_114306082.xlsx
+++ b/HW3_Excel1/HW3_114306082.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\計概TA\1011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5F6409-AADA-46F8-9C89-AD1117284F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3261AD-65A1-4483-9000-F888244CC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,7 +111,13 @@
     <t>何大美</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>陳慢慢</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t>黃阿坤</t>
@@ -768,7 +774,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
           <c:dPt>
@@ -787,212 +793,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5C42-4746-83ED-64A251FE0745}"/>
+                <c16:uniqueId val="{00000003-A4FC-4A53-A3D4-85D362B22696}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -1005,591 +811,39 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-5C42-4746-83ED-64A251FE0745}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>工作表1!A2:A15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+            <c:strRef>
+              <c:f>工作表1!$N$2:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>pass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$J$2:$J$15</c:f>
+              <c:f>工作表1!$O$2:$O$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>91.7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>77.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>66.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55.6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B46-496C-98FA-E2A0690524BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="637CEF"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E3008C"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="2AA0A4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9373C0"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="13A10E"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3A96DD"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CA5010"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="57811B"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B146C2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AE8C00"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AE8C00"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="637CEF"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="EE5FB7"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="008B94"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-700D-4A77-AC32-ED6BF2101BE5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!A2:A15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!L2:L15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-5C42-4746-83ED-64A251FE0745}"/>
+              <c16:uniqueId val="{00000000-A4FC-4A53-A3D4-85D362B22696}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1600,7 +854,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1644,7 +898,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1706,6 +960,32 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="2AA0A4"/>
+  <a:srgbClr val="9373C0"/>
+  <a:srgbClr val="13A10E"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="CA5010"/>
+  <a:srgbClr val="57811B"/>
+  <a:srgbClr val="B146C2"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="EE5FB7"/>
+  <a:srgbClr val="008B94"/>
+  <a:srgbClr val="D77440"/>
+  <a:srgbClr val="BA58C9"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="C36BD1"/>
+  <a:srgbClr val="D06228"/>
+  <a:srgbClr val="57811B"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2177,6 +1457,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2250,22 +2049,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
+        <xdr:cNvPr id="4" name="圖表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB9DB0E-B055-C88A-6DF7-44E6A5CDEA38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E686FA8-6494-A083-4EB6-CC59E21B87BC}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{328FBE8B-1E1D-2DA2-A340-02C5143AB420}"/>
@@ -2603,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999"/>
@@ -2618,7 +2417,7 @@
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -2697,13 +2496,19 @@
         <f>IF(I2&gt;=60,"pass","fail")</f>
         <v>pass</v>
       </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>88</v>
@@ -2739,13 +2544,19 @@
         <f t="shared" ref="L3:L15" si="2">IF(I3&gt;=60,"pass","fail")</f>
         <v>pass</v>
       </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>90</v>
@@ -2782,12 +2593,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>67</v>
@@ -2824,12 +2635,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>78</v>
@@ -2866,12 +2677,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>87</v>
@@ -2908,12 +2719,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>77</v>
@@ -2950,12 +2761,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <v>86</v>
@@ -2992,12 +2803,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>67</v>
@@ -3034,12 +2845,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <v>65</v>
@@ -3076,12 +2887,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -3118,12 +2929,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>72</v>
@@ -3160,12 +2971,12 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>81</v>
@@ -3202,12 +3013,12 @@
         <v>pass</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>59</v>
@@ -3244,21 +3055,21 @@
         <v>fail</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15">
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -3281,7 +3092,7 @@
     </row>
     <row r="24" spans="3:10">
       <c r="J24" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
